--- a/TeamsHub/BrowserDrivers/input.xlsx
+++ b/TeamsHub/BrowserDrivers/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiva\git\repository_TeamsHub\MavenArtifactID\BrowserDrivers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiva\git\repository_TeamsHub_Automation\TeamsHub\BrowserDrivers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF9C19-472A-4B4F-BABE-38CA507467FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F43653-34FB-4912-B431-786717080720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>teamsadmin1@cyclotrondev.com</t>
-  </si>
-  <si>
     <t>Metro@may</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>globaladmin1@cyclotrondev.com</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,27 +388,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
     </row>
